--- a/artfynd/A 67697-2021.xlsx
+++ b/artfynd/A 67697-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>96790002</v>
+        <v>96790014</v>
       </c>
       <c r="B2" t="n">
-        <v>77258</v>
+        <v>89732</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6446</v>
+        <v>2062</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>564073.1706737854</v>
+        <v>563859.434829149</v>
       </c>
       <c r="R2" t="n">
-        <v>6949458.724501893</v>
+        <v>6949920.1296579</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -779,15 +779,15 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>180-årig tallnaturskog</t>
+          <t>barrnaturskog i sumpskogskant</t>
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3 substratenheter # gamla brandhögstubbar</t>
+          <t>1 substratenheter # förrötad, senvuxen granlåga på ullticka</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -809,10 +809,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>96790003</v>
+        <v>96790002</v>
       </c>
       <c r="B3" t="n">
-        <v>78098</v>
+        <v>77258</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -825,21 +825,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -849,10 +849,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>564069.4309598429</v>
+        <v>564073.1706737854</v>
       </c>
       <c r="R3" t="n">
-        <v>6949437.969757957</v>
+        <v>6949458.724501893</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,11 +912,11 @@
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>2 substratenheter # gamla brandhögstubbar</t>
+          <t>3 substratenheter # gamla brandhögstubbar</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -938,10 +938,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>96790014</v>
+        <v>96790003</v>
       </c>
       <c r="B4" t="n">
-        <v>89732</v>
+        <v>78098</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -950,25 +950,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2062</v>
+        <v>6453</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -978,10 +978,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>563859.434829149</v>
+        <v>564069.4309598429</v>
       </c>
       <c r="R4" t="n">
-        <v>6949920.1296579</v>
+        <v>6949437.969757957</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1037,15 +1037,15 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>barrnaturskog i sumpskogskant</t>
+          <t>180-årig tallnaturskog</t>
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1 substratenheter # förrötad, senvuxen granlåga på ullticka</t>
+          <t>2 substratenheter # gamla brandhögstubbar</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>

--- a/artfynd/A 67697-2021.xlsx
+++ b/artfynd/A 67697-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>96790014</v>
+        <v>96790002</v>
       </c>
       <c r="B2" t="n">
-        <v>89732</v>
+        <v>77258</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2062</v>
+        <v>6446</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>563859.434829149</v>
+        <v>564073.1706737854</v>
       </c>
       <c r="R2" t="n">
-        <v>6949920.1296579</v>
+        <v>6949458.724501893</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -779,15 +779,15 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>barrnaturskog i sumpskogskant</t>
+          <t>180-årig tallnaturskog</t>
         </is>
       </c>
       <c r="AN2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>1 substratenheter # förrötad, senvuxen granlåga på ullticka</t>
+          <t>3 substratenheter # gamla brandhögstubbar</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -809,10 +809,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>96790002</v>
+        <v>96790003</v>
       </c>
       <c r="B3" t="n">
-        <v>77258</v>
+        <v>78098</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -825,21 +825,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6446</v>
+        <v>6453</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -849,10 +849,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>564073.1706737854</v>
+        <v>564069.4309598429</v>
       </c>
       <c r="R3" t="n">
-        <v>6949458.724501893</v>
+        <v>6949437.969757957</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,11 +912,11 @@
         </is>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>3 substratenheter # gamla brandhögstubbar</t>
+          <t>2 substratenheter # gamla brandhögstubbar</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -938,10 +938,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>96790003</v>
+        <v>96790014</v>
       </c>
       <c r="B4" t="n">
-        <v>78098</v>
+        <v>89732</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -950,25 +950,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6453</v>
+        <v>2062</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -978,10 +978,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>564069.4309598429</v>
+        <v>563859.434829149</v>
       </c>
       <c r="R4" t="n">
-        <v>6949437.969757957</v>
+        <v>6949920.1296579</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1037,15 +1037,15 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>180-årig tallnaturskog</t>
+          <t>barrnaturskog i sumpskogskant</t>
         </is>
       </c>
       <c r="AN4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>2 substratenheter # gamla brandhögstubbar</t>
+          <t>1 substratenheter # förrötad, senvuxen granlåga på ullticka</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
